--- a/كرتون_شرينك.xlsx
+++ b/كرتون_شرينك.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>م</t>
   </si>
@@ -40,9 +40,6 @@
     <t>التاريخ</t>
   </si>
   <si>
-    <t>Column5</t>
-  </si>
-  <si>
     <t>غنام عبدالله</t>
   </si>
   <si>
@@ -92,6 +89,12 @@
   </si>
   <si>
     <t>الحاوية 7</t>
+  </si>
+  <si>
+    <t>جرار3</t>
+  </si>
+  <si>
+    <t>حجازي فتوح</t>
   </si>
 </sst>
 </file>
@@ -260,11 +263,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -283,6 +282,46 @@
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -368,7 +407,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -387,46 +430,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -651,26 +654,26 @@
     <tableColumn id="4" name="الحاوية 2" dataDxfId="14"/>
     <tableColumn id="8" name="الحاوية 3" dataDxfId="13"/>
     <tableColumn id="7" name="الحاوية 4" dataDxfId="12"/>
-    <tableColumn id="9" name="الحاوية 5" dataDxfId="3"/>
-    <tableColumn id="6" name="الحاوية 6" dataDxfId="11"/>
-    <tableColumn id="10" name="الحاوية 7" dataDxfId="2"/>
-    <tableColumn id="11" name="الحاوية 8" dataDxfId="1"/>
-    <tableColumn id="12" name="الحاوية 9" dataDxfId="0"/>
+    <tableColumn id="9" name="الحاوية 5" dataDxfId="11"/>
+    <tableColumn id="6" name="الحاوية 6" dataDxfId="10"/>
+    <tableColumn id="10" name="الحاوية 7" dataDxfId="9"/>
+    <tableColumn id="11" name="الحاوية 8" dataDxfId="8"/>
+    <tableColumn id="12" name="الحاوية 9" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A20:F31" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A20:F31" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A20:F31"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="م" dataDxfId="9"/>
-    <tableColumn id="5" name="التاريخ" dataDxfId="8"/>
-    <tableColumn id="2" name="الاسم" dataDxfId="7"/>
-    <tableColumn id="3" name="جرار 1" dataDxfId="6"/>
-    <tableColumn id="4" name="جرار 2" dataDxfId="5"/>
-    <tableColumn id="6" name="Column5" dataDxfId="4"/>
+    <tableColumn id="1" name="م" dataDxfId="5"/>
+    <tableColumn id="5" name="التاريخ" dataDxfId="4"/>
+    <tableColumn id="2" name="الاسم" dataDxfId="3"/>
+    <tableColumn id="3" name="جرار 1" dataDxfId="2"/>
+    <tableColumn id="4" name="جرار 2" dataDxfId="1"/>
+    <tableColumn id="6" name="جرار3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -965,8 +968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -979,7 +982,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -993,31 +996,31 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1039,7 +1042,7 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1227,7 +1230,7 @@
         <v>45246</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -1260,7 +1263,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1346,7 +1349,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1360,13 +1363,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1423,7 +1426,9 @@
       <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -1442,7 +1447,9 @@
       <c r="E24" s="3">
         <v>1</v>
       </c>
-      <c r="F24" s="3"/>
+      <c r="F24" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -1461,7 +1468,9 @@
       <c r="E25" s="3">
         <v>1</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -1470,13 +1479,15 @@
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3">
         <v>1</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -1484,10 +1495,14 @@
         <v>7</v>
       </c>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
@@ -1495,10 +1510,14 @@
         <v>8</v>
       </c>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">

--- a/كرتون_شرينك.xlsx
+++ b/كرتون_شرينك.xlsx
@@ -91,16 +91,19 @@
     <t>الحاوية 7</t>
   </si>
   <si>
-    <t>جرار3</t>
-  </si>
-  <si>
     <t>حجازي فتوح</t>
+  </si>
+  <si>
+    <t>07-Jan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,7 +170,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -175,6 +177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +676,7 @@
     <tableColumn id="2" name="الاسم" dataDxfId="3"/>
     <tableColumn id="3" name="جرار 1" dataDxfId="2"/>
     <tableColumn id="4" name="جرار 2" dataDxfId="1"/>
-    <tableColumn id="6" name="جرار3" dataDxfId="0"/>
+    <tableColumn id="6" name="07-Jan" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -968,8 +971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -989,37 +992,37 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1035,9 +1038,9 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1051,9 +1054,9 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -1083,11 +1086,11 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -1106,15 +1109,13 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -1145,11 +1146,11 @@
       <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -1180,11 +1181,11 @@
       <c r="I9" s="3">
         <v>1</v>
       </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -1215,11 +1216,11 @@
       <c r="I10" s="3">
         <v>1</v>
       </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -1250,11 +1251,11 @@
       <c r="I11" s="3">
         <v>1</v>
       </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -1273,11 +1274,11 @@
       <c r="I12" s="3">
         <v>1</v>
       </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -1292,9 +1293,9 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -1309,9 +1310,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -1326,9 +1327,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -1343,9 +1344,9 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
@@ -1368,8 +1369,8 @@
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>25</v>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1496,7 +1497,7 @@
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>

--- a/كرتون_شرينك.xlsx
+++ b/كرتون_شرينك.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>م</t>
   </si>
@@ -95,6 +95,48 @@
   </si>
   <si>
     <t>07-Jan</t>
+  </si>
+  <si>
+    <t>الحاوية 10</t>
+  </si>
+  <si>
+    <t>الحاوية 11</t>
+  </si>
+  <si>
+    <t>الحاوية 12</t>
+  </si>
+  <si>
+    <t>الحاوية 13</t>
+  </si>
+  <si>
+    <t>الحاوية 14</t>
+  </si>
+  <si>
+    <t>الحاوية 15</t>
+  </si>
+  <si>
+    <t>الحاوية 16</t>
+  </si>
+  <si>
+    <t>الحاوية 17</t>
+  </si>
+  <si>
+    <t>الحاوية 18</t>
+  </si>
+  <si>
+    <t>جرار 3</t>
+  </si>
+  <si>
+    <t>الحاوية 19</t>
+  </si>
+  <si>
+    <t>22/112023</t>
+  </si>
+  <si>
+    <t>28/112023</t>
+  </si>
+  <si>
+    <t>12/12/202</t>
   </si>
 </sst>
 </file>
@@ -182,7 +224,305 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -647,36 +987,47 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:L16" totalsRowShown="0" headerRowDxfId="19">
-  <autoFilter ref="A3:L16"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="م" dataDxfId="18"/>
-    <tableColumn id="5" name="التاريخ" dataDxfId="17"/>
-    <tableColumn id="2" name="الاسم" dataDxfId="16"/>
-    <tableColumn id="3" name="الحاوية 1" dataDxfId="15"/>
-    <tableColumn id="4" name="الحاوية 2" dataDxfId="14"/>
-    <tableColumn id="8" name="الحاوية 3" dataDxfId="13"/>
-    <tableColumn id="7" name="الحاوية 4" dataDxfId="12"/>
-    <tableColumn id="9" name="الحاوية 5" dataDxfId="11"/>
-    <tableColumn id="6" name="الحاوية 6" dataDxfId="10"/>
-    <tableColumn id="10" name="الحاوية 7" dataDxfId="9"/>
-    <tableColumn id="11" name="الحاوية 8" dataDxfId="8"/>
-    <tableColumn id="12" name="الحاوية 9" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:V17" totalsRowShown="0" headerRowDxfId="30">
+  <autoFilter ref="A3:V17"/>
+  <tableColumns count="22">
+    <tableColumn id="1" name="م" dataDxfId="29"/>
+    <tableColumn id="5" name="التاريخ" dataDxfId="28"/>
+    <tableColumn id="2" name="الاسم" dataDxfId="27"/>
+    <tableColumn id="3" name="الحاوية 1" dataDxfId="26"/>
+    <tableColumn id="4" name="الحاوية 2" dataDxfId="25"/>
+    <tableColumn id="8" name="الحاوية 3" dataDxfId="24"/>
+    <tableColumn id="7" name="الحاوية 4" dataDxfId="23"/>
+    <tableColumn id="9" name="الحاوية 5" dataDxfId="22"/>
+    <tableColumn id="6" name="الحاوية 6" dataDxfId="21"/>
+    <tableColumn id="10" name="الحاوية 7" dataDxfId="20"/>
+    <tableColumn id="11" name="الحاوية 8" dataDxfId="19"/>
+    <tableColumn id="12" name="الحاوية 9" dataDxfId="18"/>
+    <tableColumn id="13" name="الحاوية 10" dataDxfId="10"/>
+    <tableColumn id="14" name="الحاوية 11" dataDxfId="9"/>
+    <tableColumn id="15" name="الحاوية 12" dataDxfId="8"/>
+    <tableColumn id="16" name="الحاوية 13" dataDxfId="7"/>
+    <tableColumn id="17" name="الحاوية 14" dataDxfId="6"/>
+    <tableColumn id="18" name="الحاوية 15" dataDxfId="5"/>
+    <tableColumn id="19" name="الحاوية 16" dataDxfId="4"/>
+    <tableColumn id="20" name="الحاوية 17" dataDxfId="3"/>
+    <tableColumn id="21" name="الحاوية 18" dataDxfId="2"/>
+    <tableColumn id="22" name="الحاوية 19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A20:F31" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A20:F31"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="م" dataDxfId="5"/>
-    <tableColumn id="5" name="التاريخ" dataDxfId="4"/>
-    <tableColumn id="2" name="الاسم" dataDxfId="3"/>
-    <tableColumn id="3" name="جرار 1" dataDxfId="2"/>
-    <tableColumn id="4" name="جرار 2" dataDxfId="1"/>
-    <tableColumn id="6" name="07-Jan" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A21:G32" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A21:G32"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="م" dataDxfId="16"/>
+    <tableColumn id="5" name="التاريخ" dataDxfId="15"/>
+    <tableColumn id="2" name="الاسم" dataDxfId="14"/>
+    <tableColumn id="3" name="جرار 1" dataDxfId="13"/>
+    <tableColumn id="4" name="جرار 2" dataDxfId="12"/>
+    <tableColumn id="7" name="جرار 3" dataDxfId="1"/>
+    <tableColumn id="6" name="07-Jan" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -969,10 +1320,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -980,15 +1334,15 @@
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="7.125" customWidth="1"/>
+    <col min="4" max="21" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,83 +1379,136 @@
       <c r="L3" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4">
+        <v>45267</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9.5</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>45245</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <f>A6+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="4">
         <v>45245</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -1109,24 +1516,66 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5">
+        <v>1</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5">
+        <v>1</v>
+      </c>
+      <c r="U7" s="5">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f>A7+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4">
         <v>45245</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -1134,173 +1583,351 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <f t="shared" ref="A9:A16" si="0">A8+1</f>
-        <v>4</v>
+        <f>A8+1</f>
+        <v>3</v>
       </c>
       <c r="B9" s="4">
         <v>45245</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
+      <c r="U9" s="5">
+        <v>1</v>
+      </c>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <f t="shared" ref="A10:A17" si="0">A9+1</f>
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45245</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="5">
+        <v>1</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
+      <c r="U10" s="5">
+        <v>1</v>
+      </c>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B11" s="4">
         <v>45245</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>1</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1</v>
+      </c>
+      <c r="S11" s="5">
+        <v>1</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1</v>
+      </c>
+      <c r="U11" s="5">
+        <v>1</v>
+      </c>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B12" s="4">
         <v>45246</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="5">
+        <v>1</v>
+      </c>
+      <c r="U12" s="5">
+        <v>1</v>
+      </c>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5">
+        <v>1</v>
+      </c>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1313,11 +1940,21 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1330,11 +1967,21 @@
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1347,60 +1994,81 @@
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4">
-        <v>45245</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <f>A21+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="4">
         <v>45245</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="3">
         <v>1</v>
@@ -1408,18 +2076,21 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f>A22+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" s="4">
         <v>45245</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="3">
         <v>1</v>
@@ -1427,131 +2098,168 @@
       <c r="E23" s="3">
         <v>1</v>
       </c>
-      <c r="F23" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <f t="shared" ref="A24:A31" si="1">A23+1</f>
-        <v>4</v>
+        <f>A23+1</f>
+        <v>3</v>
       </c>
       <c r="B24" s="4">
         <v>45245</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <f t="shared" ref="A25:A32" si="1">A24+1</f>
+        <v>4</v>
+      </c>
+      <c r="B25" s="4">
+        <v>45245</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B26" s="4">
         <v>45245</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/كرتون_شرينك.xlsx
+++ b/كرتون_شرينك.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="حساب الشرنك" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>م</t>
   </si>
@@ -137,6 +138,21 @@
   </si>
   <si>
     <t>12/12/202</t>
+  </si>
+  <si>
+    <t>العبوات</t>
+  </si>
+  <si>
+    <t>عدد الافراد</t>
+  </si>
+  <si>
+    <t>عدد العبوات لكل فرد</t>
+  </si>
+  <si>
+    <t>المبلغ لكل فرد</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -206,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -220,11 +236,254 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="45">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="dotted">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -606,7 +865,11 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -625,46 +888,6 @@
         <bottom/>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -777,141 +1000,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -987,49 +1075,70 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:V17" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:V17" totalsRowShown="0" headerRowDxfId="44">
   <autoFilter ref="A3:V17"/>
   <tableColumns count="22">
-    <tableColumn id="1" name="م" dataDxfId="29"/>
-    <tableColumn id="5" name="التاريخ" dataDxfId="28"/>
-    <tableColumn id="2" name="الاسم" dataDxfId="27"/>
-    <tableColumn id="3" name="الحاوية 1" dataDxfId="26"/>
-    <tableColumn id="4" name="الحاوية 2" dataDxfId="25"/>
-    <tableColumn id="8" name="الحاوية 3" dataDxfId="24"/>
-    <tableColumn id="7" name="الحاوية 4" dataDxfId="23"/>
-    <tableColumn id="9" name="الحاوية 5" dataDxfId="22"/>
-    <tableColumn id="6" name="الحاوية 6" dataDxfId="21"/>
-    <tableColumn id="10" name="الحاوية 7" dataDxfId="20"/>
-    <tableColumn id="11" name="الحاوية 8" dataDxfId="19"/>
-    <tableColumn id="12" name="الحاوية 9" dataDxfId="18"/>
-    <tableColumn id="13" name="الحاوية 10" dataDxfId="10"/>
-    <tableColumn id="14" name="الحاوية 11" dataDxfId="9"/>
-    <tableColumn id="15" name="الحاوية 12" dataDxfId="8"/>
-    <tableColumn id="16" name="الحاوية 13" dataDxfId="7"/>
-    <tableColumn id="17" name="الحاوية 14" dataDxfId="6"/>
-    <tableColumn id="18" name="الحاوية 15" dataDxfId="5"/>
-    <tableColumn id="19" name="الحاوية 16" dataDxfId="4"/>
-    <tableColumn id="20" name="الحاوية 17" dataDxfId="3"/>
-    <tableColumn id="21" name="الحاوية 18" dataDxfId="2"/>
-    <tableColumn id="22" name="الحاوية 19" dataDxfId="0"/>
+    <tableColumn id="1" name="م" dataDxfId="43"/>
+    <tableColumn id="5" name="التاريخ" dataDxfId="42"/>
+    <tableColumn id="2" name="الاسم" dataDxfId="41"/>
+    <tableColumn id="3" name="الحاوية 1" dataDxfId="40"/>
+    <tableColumn id="4" name="الحاوية 2" dataDxfId="39"/>
+    <tableColumn id="8" name="الحاوية 3" dataDxfId="38"/>
+    <tableColumn id="7" name="الحاوية 4" dataDxfId="37"/>
+    <tableColumn id="9" name="الحاوية 5" dataDxfId="36"/>
+    <tableColumn id="6" name="الحاوية 6" dataDxfId="35"/>
+    <tableColumn id="10" name="الحاوية 7" dataDxfId="34"/>
+    <tableColumn id="11" name="الحاوية 8" dataDxfId="33"/>
+    <tableColumn id="12" name="الحاوية 9" dataDxfId="32"/>
+    <tableColumn id="13" name="الحاوية 10" dataDxfId="31"/>
+    <tableColumn id="14" name="الحاوية 11" dataDxfId="30"/>
+    <tableColumn id="15" name="الحاوية 12" dataDxfId="29"/>
+    <tableColumn id="16" name="الحاوية 13" dataDxfId="28"/>
+    <tableColumn id="17" name="الحاوية 14" dataDxfId="27"/>
+    <tableColumn id="18" name="الحاوية 15" dataDxfId="26"/>
+    <tableColumn id="19" name="الحاوية 16" dataDxfId="25"/>
+    <tableColumn id="20" name="الحاوية 17" dataDxfId="24"/>
+    <tableColumn id="21" name="الحاوية 18" dataDxfId="23"/>
+    <tableColumn id="22" name="الحاوية 19" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A21:G32" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A21:G32" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A21:G32"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="م" dataDxfId="16"/>
-    <tableColumn id="5" name="التاريخ" dataDxfId="15"/>
-    <tableColumn id="2" name="الاسم" dataDxfId="14"/>
-    <tableColumn id="3" name="جرار 1" dataDxfId="13"/>
-    <tableColumn id="4" name="جرار 2" dataDxfId="12"/>
-    <tableColumn id="7" name="جرار 3" dataDxfId="1"/>
-    <tableColumn id="6" name="07-Jan" dataDxfId="11"/>
+    <tableColumn id="1" name="م" dataDxfId="20"/>
+    <tableColumn id="5" name="التاريخ" dataDxfId="19"/>
+    <tableColumn id="2" name="الاسم" dataDxfId="18"/>
+    <tableColumn id="3" name="جرار 1" dataDxfId="17"/>
+    <tableColumn id="4" name="جرار 2" dataDxfId="16"/>
+    <tableColumn id="7" name="جرار 3" dataDxfId="15"/>
+    <tableColumn id="6" name="07-Jan" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:M22" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
+  <autoFilter ref="B2:M22"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Column1" dataDxfId="11"/>
+    <tableColumn id="2" name="العبوات" dataDxfId="10"/>
+    <tableColumn id="3" name="عاطف وصفي" dataDxfId="9"/>
+    <tableColumn id="4" name="محمد شعبان" dataDxfId="8"/>
+    <tableColumn id="5" name="محمد فرج" dataDxfId="7"/>
+    <tableColumn id="6" name="خالد جمال" dataDxfId="6"/>
+    <tableColumn id="7" name="غنام عبدالله" dataDxfId="5"/>
+    <tableColumn id="8" name="مصطفى شعبان" dataDxfId="4"/>
+    <tableColumn id="9" name="هاني ربيع" dataDxfId="3"/>
+    <tableColumn id="10" name="عدد الافراد" dataDxfId="2"/>
+    <tableColumn id="11" name="عدد العبوات لكل فرد" dataDxfId="1"/>
+    <tableColumn id="12" name="المبلغ لكل فرد" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1322,11 +1431,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1334,7 +1443,9 @@
     <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="7.125" customWidth="1"/>
+    <col min="4" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="21" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -2269,4 +2380,864 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:M23"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="13" max="13" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2600</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12">
+        <f>SUM(D3:J3)</f>
+        <v>6</v>
+      </c>
+      <c r="L3" s="12">
+        <f>C3/K3</f>
+        <v>433.33333333333331</v>
+      </c>
+      <c r="M3" s="12">
+        <f>L3*0.5</f>
+        <v>216.66666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2600</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" ref="K4:K20" si="0">SUM(D4:J4)</f>
+        <v>6</v>
+      </c>
+      <c r="L4" s="12">
+        <f t="shared" ref="L4:L20" si="1">C4/K4</f>
+        <v>433.33333333333331</v>
+      </c>
+      <c r="M4" s="12">
+        <f t="shared" ref="M4:M20" si="2">L4*0.5</f>
+        <v>216.66666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="12">
+        <v>2690</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L5" s="12">
+        <f t="shared" si="1"/>
+        <v>538</v>
+      </c>
+      <c r="M5" s="12">
+        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2690</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="G6" s="12">
+        <v>1</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L6" s="12">
+        <f t="shared" si="1"/>
+        <v>538</v>
+      </c>
+      <c r="M6" s="12">
+        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2690</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L7" s="12">
+        <f t="shared" si="1"/>
+        <v>538</v>
+      </c>
+      <c r="M7" s="12">
+        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2690</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L8" s="12">
+        <f t="shared" si="1"/>
+        <v>448.33333333333331</v>
+      </c>
+      <c r="M8" s="12">
+        <f t="shared" si="2"/>
+        <v>224.16666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2690</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L9" s="12">
+        <f t="shared" si="1"/>
+        <v>448.33333333333331</v>
+      </c>
+      <c r="M9" s="12">
+        <f t="shared" si="2"/>
+        <v>224.16666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2690</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L10" s="12">
+        <f t="shared" si="1"/>
+        <v>448.33333333333331</v>
+      </c>
+      <c r="M10" s="12">
+        <f t="shared" si="2"/>
+        <v>224.16666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2690</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L11" s="12">
+        <f t="shared" si="1"/>
+        <v>448.33333333333331</v>
+      </c>
+      <c r="M11" s="12">
+        <f t="shared" si="2"/>
+        <v>224.16666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2690</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L12" s="12">
+        <f t="shared" si="1"/>
+        <v>448.33333333333331</v>
+      </c>
+      <c r="M12" s="12">
+        <f t="shared" si="2"/>
+        <v>224.16666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2690</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="1"/>
+        <v>448.33333333333331</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="2"/>
+        <v>224.16666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2600</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L14" s="12">
+        <f t="shared" si="1"/>
+        <v>433.33333333333331</v>
+      </c>
+      <c r="M14" s="12">
+        <f t="shared" si="2"/>
+        <v>216.66666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2600</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L15" s="12">
+        <f t="shared" si="1"/>
+        <v>433.33333333333331</v>
+      </c>
+      <c r="M15" s="12">
+        <f t="shared" si="2"/>
+        <v>216.66666666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2600</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="12">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L16" s="12">
+        <f t="shared" si="1"/>
+        <v>433.33333333333331</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" si="2"/>
+        <v>216.66666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="12">
+        <v>530</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="1"/>
+        <v>88.333333333333329</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="2"/>
+        <v>44.166666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2590</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="1"/>
+        <v>431.66666666666669</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="2"/>
+        <v>215.83333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2730</v>
+      </c>
+      <c r="D19" s="12">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>1</v>
+      </c>
+      <c r="H19" s="12">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="1"/>
+        <v>455</v>
+      </c>
+      <c r="M19" s="12">
+        <f t="shared" si="2"/>
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2690</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="1"/>
+        <v>448.33333333333331</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" si="2"/>
+        <v>224.16666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12">
+        <f>SUBTOTAL(109,D3:D20)</f>
+        <v>18</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" ref="E21:J21" si="3">SUBTOTAL(109,E3:E20)</f>
+        <v>18</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="G21" s="12">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12">
+        <f>SUMPRODUCT($M$3:$M$20,D3:D20)</f>
+        <v>3946.9999999999991</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" ref="E22:J22" si="4">SUMPRODUCT($M$3:$M$20,E3:E20)</f>
+        <v>3946.9999999999991</v>
+      </c>
+      <c r="F22" s="12">
+        <f t="shared" si="4"/>
+        <v>3946.9999999999991</v>
+      </c>
+      <c r="G22" s="12">
+        <f t="shared" si="4"/>
+        <v>3946.9999999999991</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="4"/>
+        <v>3946.9999999999991</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="4"/>
+        <v>2706.666666666667</v>
+      </c>
+      <c r="J22" s="12">
+        <f>SUMPRODUCT($M$3:$M$20,J3:J20)</f>
+        <v>433.33333333333331</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="K23" s="13">
+        <f>SUBTOTAL(109,D22:J22)</f>
+        <v>22874.999999999996</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K23:M23"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="K3 K4:K20" formulaRange="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/كرتون_شرينك.xlsx
+++ b/كرتون_شرينك.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>م</t>
   </si>
@@ -153,14 +153,18 @@
   </si>
   <si>
     <t>Column1</t>
+  </si>
+  <si>
+    <t>اجمالي عدد الحاويات لكل فرد</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="171" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -180,6 +184,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -251,12 +256,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="45">
     <dxf>
+      <numFmt numFmtId="171" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode="0.0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -309,9 +325,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1122,7 +1135,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:M22" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:M22" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B2:M22"/>
   <tableColumns count="12">
     <tableColumn id="1" name="Column1" dataDxfId="11"/>
@@ -2390,7 +2403,7 @@
   <dimension ref="A2:M23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B2" sqref="B2:M23"/>
@@ -2483,11 +2496,11 @@
         <f>SUM(D3:J3)</f>
         <v>6</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="15">
         <f>C3/K3</f>
         <v>433.33333333333331</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="15">
         <f>L3*0.5</f>
         <v>216.66666666666666</v>
       </c>
@@ -2522,11 +2535,11 @@
         <f t="shared" ref="K4:K20" si="0">SUM(D4:J4)</f>
         <v>6</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="15">
         <f t="shared" ref="L4:L20" si="1">C4/K4</f>
         <v>433.33333333333331</v>
       </c>
-      <c r="M4" s="12">
+      <c r="M4" s="15">
         <f t="shared" ref="M4:M20" si="2">L4*0.5</f>
         <v>216.66666666666666</v>
       </c>
@@ -2559,11 +2572,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="15">
         <f t="shared" si="1"/>
         <v>538</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="15">
         <f t="shared" si="2"/>
         <v>269</v>
       </c>
@@ -2596,11 +2609,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="15">
         <f t="shared" si="1"/>
         <v>538</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="15">
         <f t="shared" si="2"/>
         <v>269</v>
       </c>
@@ -2633,11 +2646,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="15">
         <f t="shared" si="1"/>
         <v>538</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="15">
         <f t="shared" si="2"/>
         <v>269</v>
       </c>
@@ -2672,11 +2685,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="15">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="15">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
@@ -2711,11 +2724,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="15">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="15">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
@@ -2750,11 +2763,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="15">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="15">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
@@ -2789,11 +2802,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="15">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="15">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
@@ -2828,11 +2841,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="15">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="15">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
@@ -2867,11 +2880,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="15">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="15">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
@@ -2906,11 +2919,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="15">
         <f t="shared" si="1"/>
         <v>433.33333333333331</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M14" s="15">
         <f t="shared" si="2"/>
         <v>216.66666666666666</v>
       </c>
@@ -2945,11 +2958,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="15">
         <f t="shared" si="1"/>
         <v>433.33333333333331</v>
       </c>
-      <c r="M15" s="12">
+      <c r="M15" s="15">
         <f t="shared" si="2"/>
         <v>216.66666666666666</v>
       </c>
@@ -2984,11 +2997,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="15">
         <f t="shared" si="1"/>
         <v>433.33333333333331</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M16" s="15">
         <f t="shared" si="2"/>
         <v>216.66666666666666</v>
       </c>
@@ -3023,11 +3036,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="15">
         <f t="shared" si="1"/>
         <v>88.333333333333329</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="15">
         <f t="shared" si="2"/>
         <v>44.166666666666664</v>
       </c>
@@ -3062,11 +3075,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="15">
         <f t="shared" si="1"/>
         <v>431.66666666666669</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="15">
         <f t="shared" si="2"/>
         <v>215.83333333333334</v>
       </c>
@@ -3101,11 +3114,11 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="15">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="15">
         <f t="shared" si="2"/>
         <v>227.5</v>
       </c>
@@ -3140,17 +3153,19 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="15">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20" s="15">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="12"/>
+      <c r="B21" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12">
         <f>SUBTOTAL(109,D3:D20)</f>
@@ -3181,43 +3196,43 @@
         <v>2</v>
       </c>
       <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
-      <c r="D22" s="12">
+      <c r="D22" s="15">
         <f>SUMPRODUCT($M$3:$M$20,D3:D20)</f>
         <v>3946.9999999999991</v>
       </c>
-      <c r="E22" s="12">
-        <f t="shared" ref="E22:J22" si="4">SUMPRODUCT($M$3:$M$20,E3:E20)</f>
+      <c r="E22" s="15">
+        <f t="shared" ref="E22:I22" si="4">SUMPRODUCT($M$3:$M$20,E3:E20)</f>
         <v>3946.9999999999991</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="15">
         <f t="shared" si="4"/>
         <v>3946.9999999999991</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="15">
         <f t="shared" si="4"/>
         <v>3946.9999999999991</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="15">
         <f t="shared" si="4"/>
         <v>3946.9999999999991</v>
       </c>
-      <c r="I22" s="12">
+      <c r="I22" s="15">
         <f t="shared" si="4"/>
         <v>2706.666666666667</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="15">
         <f>SUMPRODUCT($M$3:$M$20,J3:J20)</f>
         <v>433.33333333333331</v>
       </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="K23" s="13">

--- a/كرتون_شرينك.xlsx
+++ b/كرتون_شرينك.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="حساب الشرنك" sheetId="2" r:id="rId2"/>
+    <sheet name="حساب الكرتون" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
   <si>
     <t>م</t>
   </si>
@@ -156,6 +157,30 @@
   </si>
   <si>
     <t>اجمالي عدد الحاويات لكل فرد</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>جرار1</t>
+  </si>
+  <si>
+    <t>جرار2</t>
+  </si>
+  <si>
+    <t>جرار3</t>
+  </si>
+  <si>
+    <t>جرار4</t>
+  </si>
+  <si>
+    <t>اجمالي</t>
+  </si>
+  <si>
+    <t>نصيب كل فرد</t>
+  </si>
+  <si>
+    <t>جرار 4</t>
   </si>
 </sst>
 </file>
@@ -164,9 +189,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,16 +211,41 @@
       <name val="Microsoft Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -223,11 +273,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -240,7 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -253,250 +341,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode="0.0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="dotted">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Microsoft Sans Serif"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <font>
         <b val="0"/>
@@ -526,6 +403,196 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="dotted">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="dotted">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -635,6 +702,57 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -649,6 +767,7 @@
         <name val="Microsoft Sans Serif"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1013,6 +1132,141 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Microsoft Sans Serif"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -1088,68 +1342,99 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:V17" totalsRowShown="0" headerRowDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:V17" totalsRowShown="0" headerRowDxfId="62">
   <autoFilter ref="A3:V17"/>
   <tableColumns count="22">
-    <tableColumn id="1" name="م" dataDxfId="43"/>
-    <tableColumn id="5" name="التاريخ" dataDxfId="42"/>
-    <tableColumn id="2" name="الاسم" dataDxfId="41"/>
-    <tableColumn id="3" name="الحاوية 1" dataDxfId="40"/>
-    <tableColumn id="4" name="الحاوية 2" dataDxfId="39"/>
-    <tableColumn id="8" name="الحاوية 3" dataDxfId="38"/>
-    <tableColumn id="7" name="الحاوية 4" dataDxfId="37"/>
-    <tableColumn id="9" name="الحاوية 5" dataDxfId="36"/>
-    <tableColumn id="6" name="الحاوية 6" dataDxfId="35"/>
-    <tableColumn id="10" name="الحاوية 7" dataDxfId="34"/>
-    <tableColumn id="11" name="الحاوية 8" dataDxfId="33"/>
-    <tableColumn id="12" name="الحاوية 9" dataDxfId="32"/>
-    <tableColumn id="13" name="الحاوية 10" dataDxfId="31"/>
-    <tableColumn id="14" name="الحاوية 11" dataDxfId="30"/>
-    <tableColumn id="15" name="الحاوية 12" dataDxfId="29"/>
-    <tableColumn id="16" name="الحاوية 13" dataDxfId="28"/>
-    <tableColumn id="17" name="الحاوية 14" dataDxfId="27"/>
-    <tableColumn id="18" name="الحاوية 15" dataDxfId="26"/>
-    <tableColumn id="19" name="الحاوية 16" dataDxfId="25"/>
-    <tableColumn id="20" name="الحاوية 17" dataDxfId="24"/>
-    <tableColumn id="21" name="الحاوية 18" dataDxfId="23"/>
-    <tableColumn id="22" name="الحاوية 19" dataDxfId="22"/>
+    <tableColumn id="1" name="م" dataDxfId="61"/>
+    <tableColumn id="5" name="التاريخ" dataDxfId="60"/>
+    <tableColumn id="2" name="الاسم" dataDxfId="59"/>
+    <tableColumn id="3" name="الحاوية 1" dataDxfId="58"/>
+    <tableColumn id="4" name="الحاوية 2" dataDxfId="57"/>
+    <tableColumn id="8" name="الحاوية 3" dataDxfId="56"/>
+    <tableColumn id="7" name="الحاوية 4" dataDxfId="55"/>
+    <tableColumn id="9" name="الحاوية 5" dataDxfId="54"/>
+    <tableColumn id="6" name="الحاوية 6" dataDxfId="53"/>
+    <tableColumn id="10" name="الحاوية 7" dataDxfId="52"/>
+    <tableColumn id="11" name="الحاوية 8" dataDxfId="51"/>
+    <tableColumn id="12" name="الحاوية 9" dataDxfId="50"/>
+    <tableColumn id="13" name="الحاوية 10" dataDxfId="49"/>
+    <tableColumn id="14" name="الحاوية 11" dataDxfId="48"/>
+    <tableColumn id="15" name="الحاوية 12" dataDxfId="47"/>
+    <tableColumn id="16" name="الحاوية 13" dataDxfId="46"/>
+    <tableColumn id="17" name="الحاوية 14" dataDxfId="45"/>
+    <tableColumn id="18" name="الحاوية 15" dataDxfId="44"/>
+    <tableColumn id="19" name="الحاوية 16" dataDxfId="43"/>
+    <tableColumn id="20" name="الحاوية 17" dataDxfId="42"/>
+    <tableColumn id="21" name="الحاوية 18" dataDxfId="41"/>
+    <tableColumn id="22" name="الحاوية 19" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A21:G32" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A21:G32"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="م" dataDxfId="20"/>
-    <tableColumn id="5" name="التاريخ" dataDxfId="19"/>
-    <tableColumn id="2" name="الاسم" dataDxfId="18"/>
-    <tableColumn id="3" name="جرار 1" dataDxfId="17"/>
-    <tableColumn id="4" name="جرار 2" dataDxfId="16"/>
-    <tableColumn id="7" name="جرار 3" dataDxfId="15"/>
-    <tableColumn id="6" name="07-Jan" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A21:J32" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A21:J32"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="م" dataDxfId="39"/>
+    <tableColumn id="5" name="التاريخ" dataDxfId="38"/>
+    <tableColumn id="2" name="الاسم" dataDxfId="37"/>
+    <tableColumn id="3" name="جرار 1" dataDxfId="36"/>
+    <tableColumn id="4" name="جرار 2" dataDxfId="35"/>
+    <tableColumn id="7" name="جرار 3" dataDxfId="34"/>
+    <tableColumn id="6" name="جرار 4" dataDxfId="33"/>
+    <tableColumn id="8" name="اجمالي" dataDxfId="3">
+      <calculatedColumnFormula>SUM(Table13[[#This Row],[جرار 1]:[جرار 4]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="نصيب كل فرد" dataDxfId="0">
+      <calculatedColumnFormula>1000/Table13[[#This Row],[اجمالي]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="Column3" dataDxfId="2">
+      <calculatedColumnFormula>Table13[[#This Row],[نصيب كل فرد]]*Table13[[#This Row],[اجمالي]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:M22" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="B2:M22" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="B2:M22"/>
   <tableColumns count="12">
-    <tableColumn id="1" name="Column1" dataDxfId="11"/>
-    <tableColumn id="2" name="العبوات" dataDxfId="10"/>
-    <tableColumn id="3" name="عاطف وصفي" dataDxfId="9"/>
-    <tableColumn id="4" name="محمد شعبان" dataDxfId="8"/>
-    <tableColumn id="5" name="محمد فرج" dataDxfId="7"/>
-    <tableColumn id="6" name="خالد جمال" dataDxfId="6"/>
-    <tableColumn id="7" name="غنام عبدالله" dataDxfId="5"/>
-    <tableColumn id="8" name="مصطفى شعبان" dataDxfId="4"/>
-    <tableColumn id="9" name="هاني ربيع" dataDxfId="3"/>
-    <tableColumn id="10" name="عدد الافراد" dataDxfId="2"/>
-    <tableColumn id="11" name="عدد العبوات لكل فرد" dataDxfId="1"/>
-    <tableColumn id="12" name="المبلغ لكل فرد" dataDxfId="0"/>
+    <tableColumn id="1" name="Column1" dataDxfId="30"/>
+    <tableColumn id="2" name="العبوات" dataDxfId="29"/>
+    <tableColumn id="3" name="عاطف وصفي" dataDxfId="28"/>
+    <tableColumn id="4" name="محمد شعبان" dataDxfId="27"/>
+    <tableColumn id="5" name="محمد فرج" dataDxfId="26"/>
+    <tableColumn id="6" name="خالد جمال" dataDxfId="25"/>
+    <tableColumn id="7" name="غنام عبدالله" dataDxfId="24"/>
+    <tableColumn id="8" name="مصطفى شعبان" dataDxfId="23"/>
+    <tableColumn id="9" name="هاني ربيع" dataDxfId="22"/>
+    <tableColumn id="10" name="عدد الافراد" dataDxfId="21"/>
+    <tableColumn id="11" name="عدد العبوات لكل فرد" dataDxfId="20"/>
+    <tableColumn id="12" name="المبلغ لكل فرد" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="B3:N9" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="B3:N9"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Column1" dataDxfId="16"/>
+    <tableColumn id="2" name="العبوات" dataDxfId="15"/>
+    <tableColumn id="3" name="عاطف وصفي" dataDxfId="14"/>
+    <tableColumn id="4" name="محمد شعبان" dataDxfId="13"/>
+    <tableColumn id="5" name="محمد فرج" dataDxfId="12"/>
+    <tableColumn id="6" name="خالد جمال" dataDxfId="11"/>
+    <tableColumn id="7" name="حجازي فتوح" dataDxfId="10"/>
+    <tableColumn id="8" name="مصطفى شعبان" dataDxfId="9"/>
+    <tableColumn id="13" name="شريف جمال" dataDxfId="4"/>
+    <tableColumn id="9" name="هاني ربيع" dataDxfId="8"/>
+    <tableColumn id="10" name="عدد الافراد" dataDxfId="7"/>
+    <tableColumn id="11" name="عدد العبوات لكل فرد" dataDxfId="6"/>
+    <tableColumn id="12" name="المبلغ لكل فرد" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1445,10 +1730,10 @@
   <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20:O38"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1458,7 +1743,9 @@
     <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.125" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="21" width="7.125" customWidth="1"/>
+    <col min="8" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="21" width="7.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
@@ -2161,27 +2448,36 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>26</v>
+      <c r="G21" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -2204,6 +2500,18 @@
         <v>1</v>
       </c>
       <c r="G22" s="3"/>
+      <c r="H22" s="21">
+        <f>SUM(Table13[[#This Row],[جرار 1]:[جرار 4]])</f>
+        <v>3</v>
+      </c>
+      <c r="I22" s="21">
+        <f>1000/Table13[[#This Row],[اجمالي]]</f>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="J22" s="21">
+        <f>Table13[[#This Row],[نصيب كل فرد]]*Table13[[#This Row],[اجمالي]]</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -2224,6 +2532,18 @@
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
+      <c r="H23" s="21">
+        <f>SUM(Table13[[#This Row],[جرار 1]:[جرار 4]])</f>
+        <v>2</v>
+      </c>
+      <c r="I23" s="21">
+        <f>1000/Table13[[#This Row],[اجمالي]]</f>
+        <v>500</v>
+      </c>
+      <c r="J23" s="21">
+        <f>Table13[[#This Row],[نصيب كل فرد]]*Table13[[#This Row],[اجمالي]]</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -2248,6 +2568,18 @@
       <c r="G24" s="3">
         <v>0.5</v>
       </c>
+      <c r="H24" s="21">
+        <f>SUM(Table13[[#This Row],[جرار 1]:[جرار 4]])</f>
+        <v>3.5</v>
+      </c>
+      <c r="I24" s="21">
+        <f>1000/Table13[[#This Row],[اجمالي]]</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="J24" s="21">
+        <f>Table13[[#This Row],[نصيب كل فرد]]*Table13[[#This Row],[اجمالي]]</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -2272,6 +2604,18 @@
       <c r="G25" s="3">
         <v>0.5</v>
       </c>
+      <c r="H25" s="21">
+        <f>SUM(Table13[[#This Row],[جرار 1]:[جرار 4]])</f>
+        <v>3.5</v>
+      </c>
+      <c r="I25" s="21">
+        <f>1000/Table13[[#This Row],[اجمالي]]</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="J25" s="21">
+        <f>Table13[[#This Row],[نصيب كل فرد]]*Table13[[#This Row],[اجمالي]]</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -2296,6 +2640,18 @@
       <c r="G26" s="3">
         <v>0.5</v>
       </c>
+      <c r="H26" s="21">
+        <f>SUM(Table13[[#This Row],[جرار 1]:[جرار 4]])</f>
+        <v>3.5</v>
+      </c>
+      <c r="I26" s="21">
+        <f>1000/Table13[[#This Row],[اجمالي]]</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="J26" s="21">
+        <f>Table13[[#This Row],[نصيب كل فرد]]*Table13[[#This Row],[اجمالي]]</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -2315,6 +2671,18 @@
       </c>
       <c r="G27" s="3">
         <v>0.5</v>
+      </c>
+      <c r="H27" s="21">
+        <f>SUM(Table13[[#This Row],[جرار 1]:[جرار 4]])</f>
+        <v>2.5</v>
+      </c>
+      <c r="I27" s="21">
+        <f>1000/Table13[[#This Row],[اجمالي]]</f>
+        <v>400</v>
+      </c>
+      <c r="J27" s="21">
+        <f>Table13[[#This Row],[نصيب كل فرد]]*Table13[[#This Row],[اجمالي]]</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -2332,6 +2700,18 @@
       <c r="G28" s="3">
         <v>0.5</v>
       </c>
+      <c r="H28" s="21">
+        <f>SUM(Table13[[#This Row],[جرار 1]:[جرار 4]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="21">
+        <f>1000/Table13[[#This Row],[اجمالي]]</f>
+        <v>2000</v>
+      </c>
+      <c r="J28" s="21">
+        <f>Table13[[#This Row],[نصيب كل فرد]]*Table13[[#This Row],[اجمالي]]</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
@@ -2347,6 +2727,18 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3">
         <v>0.5</v>
+      </c>
+      <c r="H29" s="21">
+        <f>SUM(Table13[[#This Row],[جرار 1]:[جرار 4]])</f>
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="21">
+        <f>1000/Table13[[#This Row],[اجمالي]]</f>
+        <v>2000</v>
+      </c>
+      <c r="J29" s="21">
+        <f>Table13[[#This Row],[نصيب كل فرد]]*Table13[[#This Row],[اجمالي]]</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
@@ -2360,6 +2752,18 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
+      <c r="H30" s="21">
+        <f>SUM(Table13[[#This Row],[جرار 1]:[جرار 4]])</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="21" t="e">
+        <f>1000/Table13[[#This Row],[اجمالي]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="21" t="e">
+        <f>Table13[[#This Row],[نصيب كل فرد]]*Table13[[#This Row],[اجمالي]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
@@ -2372,6 +2776,18 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
+      <c r="H31" s="21">
+        <f>SUM(Table13[[#This Row],[جرار 1]:[جرار 4]])</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="21" t="e">
+        <f>1000/Table13[[#This Row],[اجمالي]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="21" t="e">
+        <f>Table13[[#This Row],[نصيب كل فرد]]*Table13[[#This Row],[اجمالي]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -2384,6 +2800,18 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
+      <c r="H32" s="21">
+        <f>SUM(Table13[[#This Row],[جرار 1]:[جرار 4]])</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="21" t="e">
+        <f>1000/Table13[[#This Row],[اجمالي]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="21" t="e">
+        <f>Table13[[#This Row],[نصيب كل فرد]]*Table13[[#This Row],[اجمالي]]</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2402,11 +2830,11 @@
   </sheetPr>
   <dimension ref="A2:M23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+    <sheetView rightToLeft="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:M23"/>
+      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2426,821 +2854,821 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>2600</v>
       </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12">
-        <v>1</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12">
-        <v>1</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="11">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="11">
         <f>SUM(D3:J3)</f>
         <v>6</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="13">
         <f>C3/K3</f>
         <v>433.33333333333331</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="13">
         <f>L3*0.5</f>
         <v>216.66666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>2600</v>
       </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12">
-        <v>1</v>
-      </c>
-      <c r="K4" s="12">
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11">
+        <v>1</v>
+      </c>
+      <c r="K4" s="11">
         <f t="shared" ref="K4:K20" si="0">SUM(D4:J4)</f>
         <v>6</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <f t="shared" ref="L4:L20" si="1">C4/K4</f>
         <v>433.33333333333331</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="13">
         <f t="shared" ref="M4:M20" si="2">L4*0.5</f>
         <v>216.66666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>2690</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12">
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <f t="shared" si="1"/>
         <v>538</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="13">
         <f t="shared" si="2"/>
         <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>2690</v>
       </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1</v>
-      </c>
-      <c r="G6" s="12">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12">
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="13">
         <f t="shared" si="1"/>
         <v>538</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="13">
         <f t="shared" si="2"/>
         <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>2690</v>
       </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12">
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="13">
         <f t="shared" si="1"/>
         <v>538</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="13">
         <f t="shared" si="2"/>
         <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>2690</v>
       </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1</v>
-      </c>
-      <c r="G8" s="12">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
-        <v>1</v>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12">
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="13">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="13">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>2690</v>
       </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
-        <v>1</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12">
+      <c r="D9" s="11">
+        <v>1</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="13">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="13">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>2690</v>
       </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
-        <v>1</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12">
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="13">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="13">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>2690</v>
       </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
-        <v>1</v>
-      </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12">
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="13">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="13">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>2690</v>
       </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12">
-        <v>1</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12">
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="13">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="13">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>2690</v>
       </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12">
-        <v>1</v>
-      </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12">
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="13">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="13">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>2600</v>
       </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1</v>
-      </c>
-      <c r="G14" s="12">
-        <v>1</v>
-      </c>
-      <c r="H14" s="12">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12">
-        <v>1</v>
-      </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12">
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="13">
         <f t="shared" si="1"/>
         <v>433.33333333333331</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="13">
         <f t="shared" si="2"/>
         <v>216.66666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <v>2600</v>
       </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12">
-        <v>1</v>
-      </c>
-      <c r="H15" s="12">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12">
-        <v>1</v>
-      </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12">
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="13">
         <f t="shared" si="1"/>
         <v>433.33333333333331</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="13">
         <f t="shared" si="2"/>
         <v>216.66666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <v>2600</v>
       </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1</v>
-      </c>
-      <c r="G16" s="12">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
-        <v>1</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12">
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="13">
         <f t="shared" si="1"/>
         <v>433.33333333333331</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="13">
         <f t="shared" si="2"/>
         <v>216.66666666666666</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <v>530</v>
       </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12">
-        <v>1</v>
-      </c>
-      <c r="H17" s="12">
-        <v>1</v>
-      </c>
-      <c r="I17" s="12">
-        <v>1</v>
-      </c>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12">
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="13">
         <f t="shared" si="1"/>
         <v>88.333333333333329</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="13">
         <f t="shared" si="2"/>
         <v>44.166666666666664</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>2590</v>
       </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1</v>
-      </c>
-      <c r="G18" s="12">
-        <v>1</v>
-      </c>
-      <c r="H18" s="12">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12">
-        <v>1</v>
-      </c>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12">
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="13">
         <f t="shared" si="1"/>
         <v>431.66666666666669</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="13">
         <f t="shared" si="2"/>
         <v>215.83333333333334</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <v>2730</v>
       </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1</v>
-      </c>
-      <c r="G19" s="12">
-        <v>1</v>
-      </c>
-      <c r="H19" s="12">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12">
-        <v>1</v>
-      </c>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12">
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="13">
         <f t="shared" si="1"/>
         <v>455</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="13">
         <f t="shared" si="2"/>
         <v>227.5</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>2690</v>
       </c>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1</v>
-      </c>
-      <c r="G20" s="12">
-        <v>1</v>
-      </c>
-      <c r="H20" s="12">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12">
-        <v>1</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12">
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="13">
         <f t="shared" si="1"/>
         <v>448.33333333333331</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="13">
         <f t="shared" si="2"/>
         <v>224.16666666666666</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
         <f>SUBTOTAL(109,D3:D20)</f>
         <v>18</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <f t="shared" ref="E21:J21" si="3">SUBTOTAL(109,E3:E20)</f>
         <v>18</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="15">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13">
         <f>SUMPRODUCT($M$3:$M$20,D3:D20)</f>
         <v>3946.9999999999991</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="13">
         <f t="shared" ref="E22:I22" si="4">SUMPRODUCT($M$3:$M$20,E3:E20)</f>
         <v>3946.9999999999991</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="13">
         <f t="shared" si="4"/>
         <v>3946.9999999999991</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="13">
         <f t="shared" si="4"/>
         <v>3946.9999999999991</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="13">
         <f t="shared" si="4"/>
         <v>3946.9999999999991</v>
       </c>
-      <c r="I22" s="15">
+      <c r="I22" s="13">
         <f t="shared" si="4"/>
         <v>2706.666666666667</v>
       </c>
-      <c r="J22" s="15">
+      <c r="J22" s="13">
         <f>SUMPRODUCT($M$3:$M$20,J3:J20)</f>
         <v>433.33333333333331</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="K23" s="13">
+      <c r="K23" s="14">
         <f>SUBTOTAL(109,D22:J22)</f>
         <v>22874.999999999996</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3255,4 +3683,471 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N22"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11">
+        <v>1</v>
+      </c>
+      <c r="L4" s="11">
+        <f>SUM(D4:K4)</f>
+        <v>5</v>
+      </c>
+      <c r="M4" s="13">
+        <f>C4/L4</f>
+        <v>200</v>
+      </c>
+      <c r="N4" s="13">
+        <f>M4*0.5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11">
+        <v>1</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11">
+        <f>SUM(D5:K5)</f>
+        <v>6</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11">
+        <f t="shared" ref="L6:L7" si="0">SUM(D6:K6)</f>
+        <v>5</v>
+      </c>
+      <c r="M6" s="13">
+        <f t="shared" ref="M6:M7" si="1">C6/L6</f>
+        <v>200</v>
+      </c>
+      <c r="N6" s="13">
+        <f t="shared" ref="N6:N7" si="2">M6*0.5</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="M7" s="13">
+        <f t="shared" si="1"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="N7" s="13">
+        <f t="shared" si="2"/>
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11">
+        <f>SUBTOTAL(109,D4:D7)</f>
+        <v>3</v>
+      </c>
+      <c r="E8" s="11">
+        <f>SUBTOTAL(109,E4:E7)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F8" s="11">
+        <f>SUBTOTAL(109,F4:F7)</f>
+        <v>3.5</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUBTOTAL(109,G4:G7)</f>
+        <v>3.5</v>
+      </c>
+      <c r="H8" s="11">
+        <f>SUBTOTAL(109,H4:H7)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="11">
+        <f>SUBTOTAL(109,I4:I7)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="11">
+        <f>SUBTOTAL(109,J4:J7)</f>
+        <v>2.5</v>
+      </c>
+      <c r="K8" s="11">
+        <f>SUBTOTAL(109,K4:K7)</f>
+        <v>2</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13">
+        <f>SUMPRODUCT(D4:D7,$N$4:$N$7)</f>
+        <v>200</v>
+      </c>
+      <c r="E9" s="13">
+        <f>SUMPRODUCT(E4:E7,$N$4:$N$7)</f>
+        <v>283.33333333333331</v>
+      </c>
+      <c r="F9" s="13">
+        <f>SUMPRODUCT(F4:F7,$N$4:$N$7)</f>
+        <v>283.33333333333331</v>
+      </c>
+      <c r="G9" s="13">
+        <f>SUMPRODUCT(G4:G7,$N$4:$N$7)</f>
+        <v>283.33333333333331</v>
+      </c>
+      <c r="H9" s="13">
+        <f>SUMPRODUCT(H4:H7,$N$4:$N$7)</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="I9" s="13">
+        <f>SUMPRODUCT(I4:I7,$N$4:$N$7)</f>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13">
+        <f>SUMPRODUCT(K4:K7,$N$4:$N$7)</f>
+        <v>100</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L10" s="14">
+        <f>SUBTOTAL(109,D9:K9)</f>
+        <v>1316.6666666666665</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="C12" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C13" s="15">
+        <v>45245</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C14" s="18">
+        <v>45245</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C15" s="15">
+        <v>45245</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C16" s="18">
+        <v>45245</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C17" s="15">
+        <v>45245</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L10:N10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>